--- a/데이터/연극/연극_TOP77_장소병합 (+포스터).xlsx
+++ b/데이터/연극/연극_TOP77_장소병합 (+포스터).xlsx
@@ -171,7 +171,7 @@
     <t>4D공포연극 〈스위치〉.png</t>
   </si>
   <si>
-    <t>★평점9.5★ 코미디의맛/쇼미더퍼니</t>
+    <t>★평점9.5★ 코미디의맛_쇼미더퍼니</t>
   </si>
   <si>
     <t>코미디의명가 윤형빈소극장에서 펼쳐지는 대표개그SHOW
@@ -183,7 +183,7 @@
     <t>/content/drive/MyDrive/캡스톤/데이터/연극/연극_포스터/★평점9.5★ 코미디의맛/쇼미더퍼니</t>
   </si>
   <si>
-    <t>★평점9.5★ 코미디의맛쇼미더퍼니.gif</t>
+    <t>★평점9.5★ 코미디의맛_쇼미더퍼니.gif</t>
   </si>
   <si>
     <t>공포연극 조각</t>
@@ -1141,13 +1141,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1210,6 +1216,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1222,13 +1235,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1252,25 +1258,22 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -1280,6 +1283,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1607,7 +1613,7 @@
     <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1625,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="48.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="51">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="48.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="51">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="120.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="126">
       <c r="A4" s="5">
         <v>2</v>
       </c>

--- a/데이터/연극/연극_TOP77_장소병합 (+포스터).xlsx
+++ b/데이터/연극/연극_TOP77_장소병합 (+포스터).xlsx
@@ -1141,7 +1141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,18 +1151,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1273,7 +1267,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -1285,14 +1282,11 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1751,7 +1745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="48.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="51">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1771,7 +1765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="63.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="66">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1791,7 +1785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="48.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="51">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1811,7 +1805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="48.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="51">
       <c r="A11" s="5">
         <v>9</v>
       </c>

--- a/데이터/연극/연극_TOP77_장소병합 (+포스터).xlsx
+++ b/데이터/연극/연극_TOP77_장소병합 (+포스터).xlsx
@@ -1825,7 +1825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="34.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="36">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="63.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="66">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="92.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="96">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="34.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="36">
       <c r="A15" s="5">
         <v>13</v>
       </c>
